--- a/configure/xlsx/route.xlsx
+++ b/configure/xlsx/route.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Cmd</t>
   </si>
@@ -169,13 +169,7 @@
     <t>E|服务类型-Gate|ServerType|STGate|1</t>
   </si>
   <si>
-    <t>E|服务类型-Room|ServerType|STRoom|2</t>
-  </si>
-  <si>
-    <t>E|服务类型-Match|ServerType|STMatch|3</t>
-  </si>
-  <si>
-    <t>E|服务类型-End|ServerType|STEnd|4</t>
+    <t>E|服务类型-Room|ServerType|STDb|2</t>
   </si>
   <si>
     <t>@config:table_cfg|网关接口路由表:RouteConfig|map:Cmd|map:ServerType,ActorName,FuncName</t>
@@ -1309,13 +1303,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
   </cols>
@@ -1333,16 +1327,6 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1341,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -1368,37 +1352,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
